--- a/output/Clustering/fish/find_k_validity_measures_fish_tot_PCs.xlsx
+++ b/output/Clustering/fish/find_k_validity_measures_fish_tot_PCs.xlsx
@@ -413,19 +413,19 @@
         <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.446</v>
+        <v>0.618</v>
       </c>
       <c r="E2" t="n">
-        <v>1.329</v>
+        <v>1.349</v>
       </c>
       <c r="F2" t="n">
-        <v>1.304</v>
+        <v>1.298</v>
       </c>
       <c r="G2" t="n">
-        <v>0.274</v>
+        <v>0.28</v>
       </c>
       <c r="H2" t="n">
-        <v>1.905</v>
+        <v>1.949</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
@@ -442,19 +442,19 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.446</v>
+        <v>0.618</v>
       </c>
       <c r="E3" t="n">
-        <v>1.077</v>
+        <v>1.141</v>
       </c>
       <c r="F3" t="n">
-        <v>1.208</v>
+        <v>1.328</v>
       </c>
       <c r="G3" t="n">
-        <v>0.429</v>
+        <v>0.409</v>
       </c>
       <c r="H3" t="n">
-        <v>1.905</v>
+        <v>1.949</v>
       </c>
       <c r="I3" t="n">
         <v>7</v>
@@ -471,19 +471,19 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.446</v>
+        <v>0.606</v>
       </c>
       <c r="E4" t="n">
-        <v>1.159</v>
+        <v>1.158</v>
       </c>
       <c r="F4" t="n">
-        <v>1.114</v>
+        <v>1.119</v>
       </c>
       <c r="G4" t="n">
-        <v>0.169</v>
+        <v>0.187</v>
       </c>
       <c r="H4" t="n">
-        <v>1.611</v>
+        <v>1.645</v>
       </c>
       <c r="I4" t="n">
         <v>7</v>
@@ -500,19 +500,19 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.583</v>
+        <v>0.606</v>
       </c>
       <c r="E5" t="n">
-        <v>1.091</v>
+        <v>1.176</v>
       </c>
       <c r="F5" t="n">
-        <v>0.965</v>
+        <v>1.151</v>
       </c>
       <c r="G5" t="n">
-        <v>0.288</v>
+        <v>0.249</v>
       </c>
       <c r="H5" t="n">
-        <v>1.807</v>
+        <v>1.848</v>
       </c>
       <c r="I5" t="n">
         <v>7</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.446</v>
+        <v>0.618</v>
       </c>
       <c r="E6" t="n">
-        <v>1.077</v>
+        <v>1.141</v>
       </c>
       <c r="F6" t="n">
-        <v>1.208</v>
+        <v>1.328</v>
       </c>
       <c r="G6" t="n">
-        <v>0.341</v>
+        <v>0.316</v>
       </c>
       <c r="H6" t="n">
-        <v>1.905</v>
+        <v>1.949</v>
       </c>
       <c r="I6" t="n">
         <v>7</v>
@@ -555,22 +555,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.446</v>
+        <v>0.606</v>
       </c>
       <c r="E7" t="n">
-        <v>0.74</v>
+        <v>0.805</v>
       </c>
       <c r="F7" t="n">
-        <v>0.746</v>
+        <v>0.798</v>
       </c>
       <c r="G7" t="n">
-        <v>0.425</v>
+        <v>0.39</v>
       </c>
       <c r="H7" t="n">
-        <v>1.487</v>
+        <v>1.528</v>
       </c>
       <c r="I7" t="n">
         <v>7</v>
@@ -587,19 +587,19 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.583</v>
+        <v>0.606</v>
       </c>
       <c r="E8" t="n">
-        <v>1.091</v>
+        <v>1.176</v>
       </c>
       <c r="F8" t="n">
-        <v>0.965</v>
+        <v>1.151</v>
       </c>
       <c r="G8" t="n">
-        <v>0.235</v>
+        <v>0.195</v>
       </c>
       <c r="H8" t="n">
-        <v>1.807</v>
+        <v>1.848</v>
       </c>
       <c r="I8" t="n">
         <v>7</v>
@@ -613,22 +613,22 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.622</v>
+        <v>0.613</v>
       </c>
       <c r="E9" t="n">
-        <v>1.088</v>
+        <v>0.984</v>
       </c>
       <c r="F9" t="n">
-        <v>1.071</v>
+        <v>1.037</v>
       </c>
       <c r="G9" t="n">
-        <v>0.154</v>
+        <v>0.262</v>
       </c>
       <c r="H9" t="n">
-        <v>1.572</v>
+        <v>1.609</v>
       </c>
       <c r="I9" t="n">
         <v>7</v>
@@ -645,19 +645,19 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>0.446</v>
+        <v>0.618</v>
       </c>
       <c r="E10" t="n">
-        <v>1.077</v>
+        <v>1.141</v>
       </c>
       <c r="F10" t="n">
-        <v>1.208</v>
+        <v>1.328</v>
       </c>
       <c r="G10" t="n">
-        <v>0.267</v>
+        <v>0.257</v>
       </c>
       <c r="H10" t="n">
-        <v>1.905</v>
+        <v>1.949</v>
       </c>
       <c r="I10" t="n">
         <v>7</v>
@@ -671,22 +671,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>0.446</v>
+        <v>0.606</v>
       </c>
       <c r="E11" t="n">
-        <v>0.74</v>
+        <v>0.805</v>
       </c>
       <c r="F11" t="n">
-        <v>0.746</v>
+        <v>0.798</v>
       </c>
       <c r="G11" t="n">
-        <v>0.379</v>
+        <v>0.369</v>
       </c>
       <c r="H11" t="n">
-        <v>1.487</v>
+        <v>1.528</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -700,22 +700,22 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>0.583</v>
+        <v>0.606</v>
       </c>
       <c r="E12" t="n">
-        <v>1.091</v>
+        <v>0.966</v>
       </c>
       <c r="F12" t="n">
-        <v>0.965</v>
+        <v>0.893</v>
       </c>
       <c r="G12" t="n">
-        <v>0.186</v>
+        <v>0.22</v>
       </c>
       <c r="H12" t="n">
-        <v>1.807</v>
+        <v>1.708</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -729,22 +729,22 @@
         <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>0.622</v>
+        <v>0.613</v>
       </c>
       <c r="E13" t="n">
-        <v>0.842</v>
+        <v>0.984</v>
       </c>
       <c r="F13" t="n">
-        <v>0.848</v>
+        <v>1.037</v>
       </c>
       <c r="G13" t="n">
-        <v>0.234</v>
+        <v>0.256</v>
       </c>
       <c r="H13" t="n">
-        <v>1.452</v>
+        <v>1.609</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -761,19 +761,19 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.062</v>
+        <v>0.762</v>
       </c>
       <c r="E14" t="n">
-        <v>1.033</v>
+        <v>0.75</v>
       </c>
       <c r="F14" t="n">
-        <v>1.033</v>
+        <v>0.75</v>
       </c>
       <c r="G14" t="n">
-        <v>0.292</v>
+        <v>0.47</v>
       </c>
       <c r="H14" t="n">
-        <v>1.879</v>
+        <v>2.074</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -790,19 +790,19 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>0.446</v>
+        <v>0.618</v>
       </c>
       <c r="E15" t="n">
-        <v>1.077</v>
+        <v>1.141</v>
       </c>
       <c r="F15" t="n">
-        <v>1.208</v>
+        <v>1.328</v>
       </c>
       <c r="G15" t="n">
-        <v>0.198</v>
+        <v>0.257</v>
       </c>
       <c r="H15" t="n">
-        <v>1.905</v>
+        <v>1.949</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -816,22 +816,22 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>0.446</v>
+        <v>0.606</v>
       </c>
       <c r="E16" t="n">
-        <v>0.74</v>
+        <v>0.805</v>
       </c>
       <c r="F16" t="n">
-        <v>0.746</v>
+        <v>0.798</v>
       </c>
       <c r="G16" t="n">
-        <v>0.378</v>
+        <v>0.232</v>
       </c>
       <c r="H16" t="n">
-        <v>1.487</v>
+        <v>1.528</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -845,22 +845,22 @@
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>0.583</v>
+        <v>0.606</v>
       </c>
       <c r="E17" t="n">
-        <v>0.847</v>
+        <v>0.966</v>
       </c>
       <c r="F17" t="n">
-        <v>0.802</v>
+        <v>0.893</v>
       </c>
       <c r="G17" t="n">
-        <v>0.225</v>
+        <v>0.22</v>
       </c>
       <c r="H17" t="n">
-        <v>1.594</v>
+        <v>1.708</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -874,22 +874,22 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>0.622</v>
+        <v>0.613</v>
       </c>
       <c r="E18" t="n">
-        <v>0.842</v>
+        <v>0.984</v>
       </c>
       <c r="F18" t="n">
-        <v>0.848</v>
+        <v>1.037</v>
       </c>
       <c r="G18" t="n">
-        <v>0.226</v>
+        <v>0.235</v>
       </c>
       <c r="H18" t="n">
-        <v>1.452</v>
+        <v>1.609</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -906,19 +906,19 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1.062</v>
+        <v>0.762</v>
       </c>
       <c r="E19" t="n">
-        <v>1.033</v>
+        <v>0.75</v>
       </c>
       <c r="F19" t="n">
-        <v>1.033</v>
+        <v>0.75</v>
       </c>
       <c r="G19" t="n">
-        <v>0.292</v>
+        <v>0.47</v>
       </c>
       <c r="H19" t="n">
-        <v>1.879</v>
+        <v>2.074</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -935,19 +935,19 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>0.744</v>
+        <v>0.618</v>
       </c>
       <c r="E20" t="n">
-        <v>0.884</v>
+        <v>0.403</v>
       </c>
       <c r="F20" t="n">
-        <v>0.756</v>
+        <v>0.419</v>
       </c>
       <c r="G20" t="n">
-        <v>0.251</v>
+        <v>0.656</v>
       </c>
       <c r="H20" t="n">
-        <v>1.875</v>
+        <v>1.533</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -961,22 +961,22 @@
         <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0.446</v>
+        <v>1.021</v>
       </c>
       <c r="E21" t="n">
-        <v>1.077</v>
+        <v>1.405</v>
       </c>
       <c r="F21" t="n">
-        <v>1.208</v>
+        <v>1.491</v>
       </c>
       <c r="G21" t="n">
-        <v>0.198</v>
+        <v>0.019</v>
       </c>
       <c r="H21" t="n">
-        <v>1.905</v>
+        <v>2.356</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
@@ -990,22 +990,22 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>0.446</v>
+        <v>0.606</v>
       </c>
       <c r="E22" t="n">
-        <v>0.74</v>
+        <v>0.805</v>
       </c>
       <c r="F22" t="n">
-        <v>0.746</v>
+        <v>0.798</v>
       </c>
       <c r="G22" t="n">
-        <v>0.254</v>
+        <v>0.217</v>
       </c>
       <c r="H22" t="n">
-        <v>1.487</v>
+        <v>1.528</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -1019,22 +1019,22 @@
         <v>9</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>0.583</v>
+        <v>0.606</v>
       </c>
       <c r="E23" t="n">
-        <v>0.847</v>
+        <v>0.966</v>
       </c>
       <c r="F23" t="n">
-        <v>0.802</v>
+        <v>0.893</v>
       </c>
       <c r="G23" t="n">
-        <v>0.225</v>
+        <v>0.193</v>
       </c>
       <c r="H23" t="n">
-        <v>1.594</v>
+        <v>1.708</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -1048,22 +1048,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>0.622</v>
+        <v>0.613</v>
       </c>
       <c r="E24" t="n">
-        <v>0.842</v>
+        <v>0.805</v>
       </c>
       <c r="F24" t="n">
-        <v>0.848</v>
+        <v>0.735</v>
       </c>
       <c r="G24" t="n">
-        <v>0.226</v>
+        <v>0.295</v>
       </c>
       <c r="H24" t="n">
-        <v>1.452</v>
+        <v>1.488</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -1080,19 +1080,19 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>1.062</v>
+        <v>0.896</v>
       </c>
       <c r="E25" t="n">
-        <v>1.033</v>
+        <v>0.685</v>
       </c>
       <c r="F25" t="n">
-        <v>1.033</v>
+        <v>0.685</v>
       </c>
       <c r="G25" t="n">
-        <v>0.272</v>
+        <v>0.436</v>
       </c>
       <c r="H25" t="n">
-        <v>1.879</v>
+        <v>1.784</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -1106,22 +1106,22 @@
         <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0.744</v>
+        <v>0.762</v>
       </c>
       <c r="E26" t="n">
-        <v>0.884</v>
+        <v>0.75</v>
       </c>
       <c r="F26" t="n">
-        <v>0.756</v>
+        <v>0.75</v>
       </c>
       <c r="G26" t="n">
-        <v>0.251</v>
+        <v>0.47</v>
       </c>
       <c r="H26" t="n">
-        <v>1.875</v>
+        <v>2.074</v>
       </c>
       <c r="I26" t="n">
         <v>2</v>
@@ -1138,19 +1138,19 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>0.446</v>
+        <v>0.618</v>
       </c>
       <c r="E27" t="n">
-        <v>0.462</v>
+        <v>0.403</v>
       </c>
       <c r="F27" t="n">
-        <v>0.467</v>
+        <v>0.419</v>
       </c>
       <c r="G27" t="n">
-        <v>0.587</v>
+        <v>0.656</v>
       </c>
       <c r="H27" t="n">
-        <v>1.522</v>
+        <v>1.533</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -1167,19 +1167,19 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0.942</v>
+        <v>1.021</v>
       </c>
       <c r="E28" t="n">
-        <v>1.303</v>
+        <v>1.405</v>
       </c>
       <c r="F28" t="n">
-        <v>1.304</v>
+        <v>1.491</v>
       </c>
       <c r="G28" t="n">
-        <v>0.012</v>
+        <v>-0.02</v>
       </c>
       <c r="H28" t="n">
-        <v>2.25</v>
+        <v>2.356</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -1193,22 +1193,22 @@
         <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.446</v>
+        <v>0.606</v>
       </c>
       <c r="E29" t="n">
-        <v>0.74</v>
+        <v>0.805</v>
       </c>
       <c r="F29" t="n">
-        <v>0.746</v>
+        <v>0.798</v>
       </c>
       <c r="G29" t="n">
-        <v>0.254</v>
+        <v>0.217</v>
       </c>
       <c r="H29" t="n">
-        <v>1.487</v>
+        <v>1.528</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -1222,22 +1222,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>0.583</v>
+        <v>0.606</v>
       </c>
       <c r="E30" t="n">
-        <v>0.847</v>
+        <v>0.966</v>
       </c>
       <c r="F30" t="n">
-        <v>0.802</v>
+        <v>0.893</v>
       </c>
       <c r="G30" t="n">
-        <v>0.225</v>
+        <v>0.193</v>
       </c>
       <c r="H30" t="n">
-        <v>1.594</v>
+        <v>1.708</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -1251,22 +1251,22 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>0.622</v>
+        <v>0.613</v>
       </c>
       <c r="E31" t="n">
-        <v>0.842</v>
+        <v>0.805</v>
       </c>
       <c r="F31" t="n">
-        <v>0.848</v>
+        <v>0.735</v>
       </c>
       <c r="G31" t="n">
-        <v>0.226</v>
+        <v>0.295</v>
       </c>
       <c r="H31" t="n">
-        <v>1.452</v>
+        <v>1.488</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -1283,19 +1283,19 @@
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>1.062</v>
+        <v>0.896</v>
       </c>
       <c r="E32" t="n">
-        <v>1.033</v>
+        <v>0.685</v>
       </c>
       <c r="F32" t="n">
-        <v>1.033</v>
+        <v>0.685</v>
       </c>
       <c r="G32" t="n">
-        <v>0.258</v>
+        <v>0.436</v>
       </c>
       <c r="H32" t="n">
-        <v>1.879</v>
+        <v>1.784</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -1309,22 +1309,22 @@
         <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>0.744</v>
+        <v>0.762</v>
       </c>
       <c r="E33" t="n">
-        <v>0.884</v>
+        <v>0.75</v>
       </c>
       <c r="F33" t="n">
-        <v>0.756</v>
+        <v>0.75</v>
       </c>
       <c r="G33" t="n">
-        <v>0.251</v>
+        <v>0.47</v>
       </c>
       <c r="H33" t="n">
-        <v>1.875</v>
+        <v>2.074</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>0.446</v>
+        <v>0.618</v>
       </c>
       <c r="E34" t="n">
-        <v>0.462</v>
+        <v>0.403</v>
       </c>
       <c r="F34" t="n">
-        <v>0.467</v>
+        <v>0.419</v>
       </c>
       <c r="G34" t="n">
-        <v>0.574</v>
+        <v>0.653</v>
       </c>
       <c r="H34" t="n">
-        <v>1.522</v>
+        <v>1.533</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -1370,19 +1370,19 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>0.942</v>
+        <v>1.021</v>
       </c>
       <c r="E35" t="n">
-        <v>1.074</v>
+        <v>1.122</v>
       </c>
       <c r="F35" t="n">
-        <v>1.074</v>
+        <v>1.122</v>
       </c>
       <c r="G35" t="n">
-        <v>0.103</v>
+        <v>0.125</v>
       </c>
       <c r="H35" t="n">
-        <v>2.002</v>
+        <v>2.157</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1.304</v>
+        <v>1.443</v>
       </c>
       <c r="E36" t="e">
         <v>#NUM!</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.629</v>
+        <v>2.645</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -1423,22 +1423,22 @@
         <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>0.388</v>
+        <v>0.606</v>
       </c>
       <c r="E37" t="n">
-        <v>0.736</v>
+        <v>0.652</v>
       </c>
       <c r="F37" t="n">
-        <v>0.724</v>
+        <v>0.657</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.024</v>
+        <v>0.324</v>
       </c>
       <c r="H37" t="n">
-        <v>1.339</v>
+        <v>1.502</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -1452,22 +1452,22 @@
         <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>0.583</v>
+        <v>0.606</v>
       </c>
       <c r="E38" t="n">
-        <v>0.847</v>
+        <v>0.966</v>
       </c>
       <c r="F38" t="n">
-        <v>0.802</v>
+        <v>0.893</v>
       </c>
       <c r="G38" t="n">
-        <v>0.199</v>
+        <v>0.182</v>
       </c>
       <c r="H38" t="n">
-        <v>1.594</v>
+        <v>1.708</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -1481,22 +1481,22 @@
         <v>9</v>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>0.622</v>
+        <v>0.613</v>
       </c>
       <c r="E39" t="n">
-        <v>0.842</v>
+        <v>0.805</v>
       </c>
       <c r="F39" t="n">
-        <v>0.848</v>
+        <v>0.735</v>
       </c>
       <c r="G39" t="n">
-        <v>0.211</v>
+        <v>0.263</v>
       </c>
       <c r="H39" t="n">
-        <v>1.452</v>
+        <v>1.488</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -1513,19 +1513,19 @@
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>1.062</v>
+        <v>0.896</v>
       </c>
       <c r="E40" t="n">
-        <v>1.033</v>
+        <v>0.685</v>
       </c>
       <c r="F40" t="n">
-        <v>1.033</v>
+        <v>0.685</v>
       </c>
       <c r="G40" t="n">
-        <v>0.258</v>
+        <v>0.436</v>
       </c>
       <c r="H40" t="n">
-        <v>1.879</v>
+        <v>1.784</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -1539,22 +1539,22 @@
         <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>0.744</v>
+        <v>0.762</v>
       </c>
       <c r="E41" t="n">
-        <v>0.884</v>
+        <v>0.75</v>
       </c>
       <c r="F41" t="n">
-        <v>0.756</v>
+        <v>0.75</v>
       </c>
       <c r="G41" t="n">
-        <v>0.241</v>
+        <v>0.47</v>
       </c>
       <c r="H41" t="n">
-        <v>1.875</v>
+        <v>2.074</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -1568,22 +1568,22 @@
         <v>9</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>0.388</v>
+        <v>0.715</v>
       </c>
       <c r="E42" t="n">
-        <v>0.516</v>
+        <v>0.932</v>
       </c>
       <c r="F42" t="n">
-        <v>0.539</v>
+        <v>0.932</v>
       </c>
       <c r="G42" t="n">
-        <v>0.377</v>
+        <v>0.066</v>
       </c>
       <c r="H42" t="n">
-        <v>1.409</v>
+        <v>1.379</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -1600,19 +1600,19 @@
         <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>0.446</v>
+        <v>0.618</v>
       </c>
       <c r="E43" t="n">
-        <v>0.462</v>
+        <v>0.403</v>
       </c>
       <c r="F43" t="n">
-        <v>0.467</v>
+        <v>0.419</v>
       </c>
       <c r="G43" t="n">
-        <v>0.476</v>
+        <v>0.644</v>
       </c>
       <c r="H43" t="n">
-        <v>1.522</v>
+        <v>1.533</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -1629,19 +1629,19 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>0.942</v>
+        <v>1.021</v>
       </c>
       <c r="E44" t="n">
-        <v>1.074</v>
+        <v>1.122</v>
       </c>
       <c r="F44" t="n">
-        <v>1.074</v>
+        <v>1.122</v>
       </c>
       <c r="G44" t="n">
-        <v>0.103</v>
+        <v>0.125</v>
       </c>
       <c r="H44" t="n">
-        <v>2.002</v>
+        <v>2.157</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1.304</v>
+        <v>1.443</v>
       </c>
       <c r="E45" t="e">
         <v>#NUM!</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.629</v>
+        <v>2.645</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -1682,22 +1682,22 @@
         <v>9</v>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>0.388</v>
+        <v>0.606</v>
       </c>
       <c r="E46" t="n">
-        <v>0.736</v>
+        <v>0.652</v>
       </c>
       <c r="F46" t="n">
-        <v>0.724</v>
+        <v>0.657</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.024</v>
+        <v>0.314</v>
       </c>
       <c r="H46" t="n">
-        <v>1.339</v>
+        <v>1.502</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -1711,22 +1711,22 @@
         <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>0.583</v>
+        <v>0.606</v>
       </c>
       <c r="E47" t="n">
-        <v>0.847</v>
+        <v>0.778</v>
       </c>
       <c r="F47" t="n">
-        <v>0.802</v>
+        <v>0.791</v>
       </c>
       <c r="G47" t="n">
-        <v>0.124</v>
+        <v>0.244</v>
       </c>
       <c r="H47" t="n">
-        <v>1.594</v>
+        <v>1.564</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>0.412</v>
+        <v>0.613</v>
       </c>
       <c r="E48" t="n">
-        <v>0.862</v>
+        <v>0.805</v>
       </c>
       <c r="F48" t="n">
-        <v>0.809</v>
+        <v>0.735</v>
       </c>
       <c r="G48" t="n">
-        <v>0.048</v>
+        <v>0.263</v>
       </c>
       <c r="H48" t="n">
-        <v>1.548</v>
+        <v>1.488</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -1772,19 +1772,19 @@
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>1.062</v>
+        <v>0.896</v>
       </c>
       <c r="E49" t="n">
-        <v>1.033</v>
+        <v>0.685</v>
       </c>
       <c r="F49" t="n">
-        <v>1.033</v>
+        <v>0.685</v>
       </c>
       <c r="G49" t="n">
-        <v>0.176</v>
+        <v>0.436</v>
       </c>
       <c r="H49" t="n">
-        <v>1.879</v>
+        <v>1.784</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -1798,22 +1798,22 @@
         <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>0.744</v>
+        <v>0.762</v>
       </c>
       <c r="E50" t="n">
-        <v>0.884</v>
+        <v>0.75</v>
       </c>
       <c r="F50" t="n">
-        <v>0.756</v>
+        <v>0.75</v>
       </c>
       <c r="G50" t="n">
-        <v>0.241</v>
+        <v>0.427</v>
       </c>
       <c r="H50" t="n">
-        <v>1.875</v>
+        <v>2.074</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -1827,22 +1827,22 @@
         <v>9</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>0.412</v>
+        <v>0.715</v>
       </c>
       <c r="E51" t="n">
-        <v>0.592</v>
+        <v>0.932</v>
       </c>
       <c r="F51" t="n">
-        <v>0.579</v>
+        <v>0.932</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3</v>
+        <v>0.065</v>
       </c>
       <c r="H51" t="n">
-        <v>1.28</v>
+        <v>1.379</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -1856,22 +1856,22 @@
         <v>9</v>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>0.388</v>
+        <v>0.618</v>
       </c>
       <c r="E52" t="n">
-        <v>0.516</v>
+        <v>0.403</v>
       </c>
       <c r="F52" t="n">
-        <v>0.539</v>
+        <v>0.419</v>
       </c>
       <c r="G52" t="n">
-        <v>0.377</v>
+        <v>0.644</v>
       </c>
       <c r="H52" t="n">
-        <v>1.409</v>
+        <v>1.533</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -1885,22 +1885,20 @@
         <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.467</v>
-      </c>
+        <v>1.15</v>
+      </c>
+      <c r="E53" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F53"/>
       <c r="G53" t="n">
-        <v>0.476</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1.522</v>
+        <v>2.231</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -1917,19 +1915,19 @@
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>0.942</v>
+        <v>1.021</v>
       </c>
       <c r="E54" t="n">
-        <v>1.074</v>
+        <v>1.122</v>
       </c>
       <c r="F54" t="n">
-        <v>1.074</v>
+        <v>1.122</v>
       </c>
       <c r="G54" t="n">
-        <v>0.103</v>
+        <v>0.125</v>
       </c>
       <c r="H54" t="n">
-        <v>2.002</v>
+        <v>2.157</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -1946,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1.304</v>
+        <v>1.443</v>
       </c>
       <c r="E55" t="e">
         <v>#NUM!</v>
@@ -1956,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2.629</v>
+        <v>2.645</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
